--- a/TO DELETE LATER/Board.xlsx
+++ b/TO DELETE LATER/Board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="30">
   <si>
     <t>X</t>
   </si>
@@ -32,18 +32,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>RI</t>
-  </si>
-  <si>
-    <t>GI</t>
-  </si>
-  <si>
-    <t>YI</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
     <t>BS</t>
   </si>
   <si>
@@ -86,9 +74,6 @@
     <t>Not allowed locations</t>
   </si>
   <si>
-    <t>Initial State of colors</t>
-  </si>
-  <si>
     <t>Star of specific color</t>
   </si>
   <si>
@@ -99,13 +84,43 @@
   </si>
   <si>
     <t>Normal Star</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>YB</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>YP</t>
+  </si>
+  <si>
+    <t>Position of pawn</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +128,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +169,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -247,6 +280,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,7 +572,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W24" sqref="W24"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,77 +639,77 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>0</v>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>0</v>
+      <c r="K2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>0</v>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>0</v>
@@ -684,133 +723,133 @@
       <c r="O3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>0</v>
+      <c r="P3" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="6" t="s">
-        <v>0</v>
+      <c r="K4" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>0</v>
+      <c r="P4" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="6" t="s">
-        <v>0</v>
+      <c r="K5" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="6" t="s">
-        <v>0</v>
+      <c r="P5" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>0</v>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="6" t="s">
-        <v>0</v>
+      <c r="K6" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>0</v>
@@ -824,54 +863,54 @@
       <c r="O6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="P6" s="6" t="s">
-        <v>0</v>
+      <c r="P6" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>0</v>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>0</v>
+      <c r="K7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -880,20 +919,20 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="6" t="s">
-        <v>0</v>
+      <c r="H8" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -910,43 +949,43 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>0</v>
+      <c r="I9" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P9" s="5"/>
     </row>
@@ -962,21 +1001,21 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="6" t="s">
-        <v>0</v>
+      <c r="H10" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P10" s="5"/>
     </row>
@@ -984,54 +1023,54 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>0</v>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>0</v>
+      <c r="K11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>0</v>
+      <c r="B12" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>0</v>
@@ -1045,16 +1084,16 @@
       <c r="F12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>0</v>
+      <c r="G12" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="6" t="s">
-        <v>0</v>
+      <c r="K12" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>0</v>
@@ -1068,110 +1107,110 @@
       <c r="O12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>0</v>
+      <c r="P12" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>0</v>
+      <c r="B13" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>0</v>
+      <c r="G13" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="6" t="s">
-        <v>0</v>
+      <c r="K13" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="P13" s="6" t="s">
-        <v>0</v>
+      <c r="P13" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>0</v>
+      <c r="B14" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>0</v>
+      <c r="G14" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>0</v>
+      <c r="K14" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="P14" s="6" t="s">
-        <v>0</v>
+      <c r="P14" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>0</v>
+      <c r="B15" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>0</v>
@@ -1185,18 +1224,18 @@
       <c r="F15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>0</v>
+      <c r="G15" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="H15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="6" t="s">
-        <v>0</v>
+      <c r="K15" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>0</v>
@@ -1210,57 +1249,57 @@
       <c r="O15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="6" t="s">
-        <v>0</v>
+      <c r="P15" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>0</v>
+      <c r="B16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>0</v>
+      <c r="K16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -1268,39 +1307,39 @@
         <v>0</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="V21" s="12" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="V22" s="13" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="V23" s="14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="V24" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
@@ -1308,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/TO DELETE LATER/Board.xlsx
+++ b/TO DELETE LATER/Board.xlsx
@@ -24,26 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="29">
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>BS</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>YS</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
     <t>BL</t>
   </si>
   <si>
@@ -74,18 +59,12 @@
     <t>Not allowed locations</t>
   </si>
   <si>
-    <t>Star of specific color</t>
-  </si>
-  <si>
     <t>Lane of a color</t>
   </si>
   <si>
     <t>Home of a color</t>
   </si>
   <si>
-    <t>Normal Star</t>
-  </si>
-  <si>
     <t>RB</t>
   </si>
   <si>
@@ -114,6 +93,24 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>YC</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>Start tile of specific color</t>
+  </si>
+  <si>
+    <t>Black - Inaccessible</t>
   </si>
 </sst>
 </file>
@@ -130,6 +127,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="7" tint="0.79998168889431442"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -282,10 +280,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -572,7 +570,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,43 +638,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -684,32 +682,32 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>0</v>
@@ -724,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -732,47 +730,45 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="9" t="s">
         <v>1</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -780,45 +776,45 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -826,30 +822,30 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>0</v>
@@ -864,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -872,45 +868,45 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -919,27 +915,25 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="17" t="s">
-        <v>29</v>
+      <c r="H8" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
@@ -949,43 +943,43 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P9" s="5"/>
     </row>
@@ -995,27 +989,25 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="17" t="s">
-        <v>29</v>
+      <c r="H10" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="10" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="P10" s="5"/>
     </row>
@@ -1024,45 +1016,45 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1070,7 +1062,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>0</v>
@@ -1085,15 +1077,15 @@
         <v>0</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>0</v>
@@ -1108,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1116,45 +1108,45 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1162,47 +1154,45 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J14" s="5"/>
       <c r="K14" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1210,7 +1200,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>0</v>
@@ -1225,17 +1215,17 @@
         <v>0</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>0</v>
@@ -1250,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1258,48 +1248,48 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -1307,47 +1297,47 @@
         <v>0</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="V21" s="12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="V22" s="13" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="V23" s="14" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="V24" s="15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="V25" s="16" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/TO DELETE LATER/Board.xlsx
+++ b/TO DELETE LATER/Board.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="33">
   <si>
     <t>X</t>
   </si>
@@ -111,6 +112,18 @@
   </si>
   <si>
     <t>Black - Inaccessible</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>BLACK</t>
   </si>
 </sst>
 </file>
@@ -183,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -230,11 +243,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -284,6 +308,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,7 +606,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V26" sqref="V26"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,7 +621,7 @@
     <col min="23" max="23" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
         <v>0</v>
@@ -632,8 +668,14 @@
       <c r="P1" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -676,8 +718,14 @@
       <c r="P2" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -724,8 +772,14 @@
       <c r="P3" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -770,8 +824,14 @@
       <c r="P4" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -816,8 +876,14 @@
       <c r="P5" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -863,7 +929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -908,8 +974,14 @@
       <c r="P7" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -936,8 +1008,14 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -982,8 +1060,14 @@
         <v>3</v>
       </c>
       <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1010,8 +1094,14 @@
         <v>25</v>
       </c>
       <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1056,8 +1146,14 @@
       <c r="P11" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1102,8 +1198,14 @@
       <c r="P12" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1148,8 +1250,14 @@
       <c r="P13" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1194,8 +1302,14 @@
       <c r="P14" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1243,7 +1357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1344,4 +1458,731 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="3.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TO DELETE LATER/Board.xlsx
+++ b/TO DELETE LATER/Board.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Ludo_SMG\TO DELETE LATER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkunaparaju\Documents\GitHub\Ludo_SMG\TO DELETE LATER\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -606,7 +606,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
